--- a/钻孔数据.xlsx
+++ b/钻孔数据.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E2134-212E-43F6-9B65-A1AE44A10019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,12 +91,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,17 +104,68 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,27 +192,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,1197 +559,1198 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>120</v>
       </c>
-      <c r="C9">
-        <v>220</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3">
+        <v>220</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>120</v>
       </c>
-      <c r="C10">
-        <v>220</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3">
+        <v>220</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>120</v>
       </c>
-      <c r="C11">
-        <v>220</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3">
+        <v>220</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>120</v>
       </c>
-      <c r="C12">
-        <v>220</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="3">
+        <v>220</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>120</v>
       </c>
-      <c r="C13">
-        <v>220</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3">
+        <v>220</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="E13" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>120</v>
       </c>
-      <c r="C14">
-        <v>220</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="3">
+        <v>220</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>120</v>
       </c>
-      <c r="C15">
-        <v>220</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3">
+        <v>220</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>140</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>210</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>140</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>210</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>140</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>210</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="E18" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>140</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>210</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>140</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>210</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>140</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>210</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>6.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>140</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>210</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>160</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>230</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>160</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>230</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>3.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>160</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>230</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E25">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="E25" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>160</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>230</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>160</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>230</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="E27" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>160</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>230</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>160</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>230</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>3.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>180</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>190</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>180</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>190</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>180</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>190</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>180</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>190</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>180</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>190</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E34">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="E34" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>180</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>190</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>6.2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>180</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>190</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>3.3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="7">
+        <v>200</v>
+      </c>
+      <c r="C37" s="7">
         <v>210</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>1.7</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B38">
-        <v>200</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="7">
+        <v>200</v>
+      </c>
+      <c r="C38" s="7">
         <v>210</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>3.2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="7">
+        <v>200</v>
+      </c>
+      <c r="C39" s="7">
         <v>210</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>2.4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="7">
+        <v>200</v>
+      </c>
+      <c r="C40" s="7">
         <v>210</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="7">
+        <v>200</v>
+      </c>
+      <c r="C41" s="7">
         <v>210</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>4.3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="7">
+        <v>200</v>
+      </c>
+      <c r="C42" s="7">
         <v>210</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="7">
         <v>6.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="7">
+        <v>200</v>
+      </c>
+      <c r="C43" s="7">
         <v>210</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B44">
-        <v>220</v>
-      </c>
-      <c r="C44">
-        <v>240</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="2">
+        <v>220</v>
+      </c>
+      <c r="C44" s="2">
+        <v>240</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B45">
-        <v>220</v>
-      </c>
-      <c r="C45">
-        <v>240</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" s="2">
+        <v>220</v>
+      </c>
+      <c r="C45" s="2">
+        <v>240</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B46">
-        <v>220</v>
-      </c>
-      <c r="C46">
-        <v>240</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="2">
+        <v>220</v>
+      </c>
+      <c r="C46" s="2">
+        <v>240</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E46">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="E46" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B47">
-        <v>220</v>
-      </c>
-      <c r="C47">
-        <v>240</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" s="2">
+        <v>220</v>
+      </c>
+      <c r="C47" s="2">
+        <v>240</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B48">
-        <v>220</v>
-      </c>
-      <c r="C48">
-        <v>240</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" s="2">
+        <v>220</v>
+      </c>
+      <c r="C48" s="2">
+        <v>240</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B49">
-        <v>220</v>
-      </c>
-      <c r="C49">
-        <v>240</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" s="2">
+        <v>220</v>
+      </c>
+      <c r="C49" s="2">
+        <v>240</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B50">
-        <v>220</v>
-      </c>
-      <c r="C50">
-        <v>240</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" s="2">
+        <v>220</v>
+      </c>
+      <c r="C50" s="2">
+        <v>240</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B51">
-        <v>240</v>
-      </c>
-      <c r="C51">
-        <v>200</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B51" s="3">
+        <v>240</v>
+      </c>
+      <c r="C51" s="3">
+        <v>200</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B52">
-        <v>240</v>
-      </c>
-      <c r="C52">
-        <v>200</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="3">
+        <v>240</v>
+      </c>
+      <c r="C52" s="3">
+        <v>200</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B53">
-        <v>240</v>
-      </c>
-      <c r="C53">
-        <v>200</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" s="3">
+        <v>240</v>
+      </c>
+      <c r="C53" s="3">
+        <v>200</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B54">
-        <v>240</v>
-      </c>
-      <c r="C54">
-        <v>200</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="3">
+        <v>240</v>
+      </c>
+      <c r="C54" s="3">
+        <v>200</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B55">
-        <v>240</v>
-      </c>
-      <c r="C55">
-        <v>200</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" s="3">
+        <v>240</v>
+      </c>
+      <c r="C55" s="3">
+        <v>200</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56">
-        <v>240</v>
-      </c>
-      <c r="C56">
-        <v>200</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="3">
+        <v>240</v>
+      </c>
+      <c r="C56" s="3">
+        <v>200</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57">
-        <v>240</v>
-      </c>
-      <c r="C57">
-        <v>200</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B57" s="3">
+        <v>240</v>
+      </c>
+      <c r="C57" s="3">
+        <v>200</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>260</v>
       </c>
-      <c r="C58">
-        <v>220</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="4">
+        <v>220</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>260</v>
       </c>
-      <c r="C59">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="4">
+        <v>220</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>260</v>
       </c>
-      <c r="C60">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="4">
+        <v>220</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>260</v>
       </c>
-      <c r="C61">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="4">
+        <v>220</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>260</v>
       </c>
-      <c r="C62">
-        <v>220</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="4">
+        <v>220</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E62">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="E62" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>260</v>
       </c>
-      <c r="C63">
-        <v>220</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="4">
+        <v>220</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>260</v>
       </c>
-      <c r="C64">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" s="4">
+        <v>220</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>280</v>
       </c>
-      <c r="C65">
-        <v>240</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="5">
+        <v>240</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="5">
         <v>1.6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>280</v>
       </c>
-      <c r="C66">
-        <v>240</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="5">
+        <v>240</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>280</v>
       </c>
-      <c r="C67">
-        <v>240</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" s="5">
+        <v>240</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>280</v>
       </c>
-      <c r="C68">
-        <v>240</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" s="5">
+        <v>240</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>280</v>
       </c>
-      <c r="C69">
-        <v>240</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" s="5">
+        <v>240</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E69">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="E69" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>280</v>
       </c>
-      <c r="C70">
-        <v>240</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" s="5">
+        <v>240</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="5">
         <v>6.7</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>280</v>
       </c>
-      <c r="C71">
-        <v>240</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" s="5">
+        <v>240</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>3.6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>